--- a/mhs.xlsx
+++ b/mhs.xlsx
@@ -16,22 +16,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NIM</t>
+  </si>
+  <si>
+    <t>nim ke-1</t>
+  </si>
+  <si>
+    <t>nim ke-2</t>
+  </si>
+  <si>
+    <t>nim ke-3</t>
+  </si>
+  <si>
+    <t>nim ke-4</t>
+  </si>
+  <si>
+    <t>nim ke-5</t>
+  </si>
+  <si>
+    <t>nim ke-6</t>
+  </si>
+  <si>
+    <t>nim ke-7</t>
+  </si>
+  <si>
+    <t>nim ke-8</t>
+  </si>
+  <si>
+    <t>nim ke-9</t>
+  </si>
+  <si>
+    <t>nim ke-10</t>
+  </si>
+  <si>
+    <t>nim ke-n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -55,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,81 +402,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14117001</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>14117002</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>14117003</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14117004</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14117005</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14117006</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>14117007</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14117008</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>14117009</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>14117010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>14117011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14117012</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
